--- a/spreadsheets/DistChegadas.xlsx
+++ b/spreadsheets/DistChegadas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>MEIO-TP1</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Soma(t)</t>
   </si>
   <si>
+    <t>Taxa de chegada (Lambda)</t>
+  </si>
+  <si>
     <t>Número de Categorias</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t>Fronteira</t>
   </si>
   <si>
-    <t>Valor</t>
+    <t>Valor (segundos)</t>
   </si>
   <si>
     <t>L1</t>
@@ -55,10 +58,43 @@
     <t>L4</t>
   </si>
   <si>
-    <t>Categoria</t>
+    <t>Categoria </t>
   </si>
   <si>
     <t>Número observado</t>
+  </si>
+  <si>
+    <t>1:  0 &lt;= t &lt; L1</t>
+  </si>
+  <si>
+    <t>2: L1 &lt;= t &lt; L2</t>
+  </si>
+  <si>
+    <t>3: L2 &lt;= t &lt; L3</t>
+  </si>
+  <si>
+    <t>4: L3 &lt;= t &lt; L4</t>
+  </si>
+  <si>
+    <t>5: L4 &lt;= t</t>
+  </si>
+  <si>
+    <t>Cálculo do qui-quadrado para os valores observados</t>
+  </si>
+  <si>
+    <t>Parcela 1</t>
+  </si>
+  <si>
+    <t>Parcela 2</t>
+  </si>
+  <si>
+    <t>Parcela 3</t>
+  </si>
+  <si>
+    <t>Parcela 4</t>
+  </si>
+  <si>
+    <t>Parcela 5</t>
   </si>
   <si>
     <t>Qui-quadrado (obs)</t>
@@ -71,7 +107,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -91,6 +127,13 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -155,7 +198,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
@@ -171,6 +214,13 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -250,19 +300,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E27" activeCellId="0" pane="topLeft" sqref="E27"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C38" activeCellId="0" pane="topLeft" sqref="C38:I38"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -324,7 +374,9 @@
       <c r="A7" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="6" t="n">
         <f aca="false">D5 / SUM(A2:A1004)</f>
         <v>0.0579558955634762</v>
@@ -349,10 +401,10 @@
         <v>0.2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -390,10 +442,10 @@
         <v>0.4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -401,7 +453,7 @@
         <v>0.4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>3.847</v>
@@ -412,7 +464,7 @@
         <v>0.5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>8.807</v>
@@ -423,7 +475,7 @@
         <v>0.5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>15.798</v>
@@ -434,7 +486,7 @@
         <v>0.5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>27.749</v>
@@ -455,18 +507,18 @@
         <v>0.6</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C22" s="6" t="n">
-        <v>1</v>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>187</v>
@@ -476,8 +528,8 @@
       <c r="A23" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C23" s="6" t="n">
-        <v>2</v>
+      <c r="C23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>192</v>
@@ -487,8 +539,8 @@
       <c r="A24" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C24" s="6" t="n">
-        <v>3</v>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>212</v>
@@ -498,8 +550,8 @@
       <c r="A25" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C25" s="6" t="n">
-        <v>4</v>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>224</v>
@@ -509,12 +561,13 @@
       <c r="A26" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>5</v>
+      <c r="C26" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>185</v>
       </c>
+      <c r="I26" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="3" t="n">
@@ -530,68 +583,82 @@
       <c r="A29" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="n">
-        <f aca="false">POWER((D22-D11),2)/D11</f>
-        <v>0.845</v>
-      </c>
+      <c r="C29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="n">
-        <f aca="false">POWER((D23-D11),2)/D11</f>
-        <v>0.32</v>
+      <c r="C30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <f aca="false">POWER((D22-D11),2)/D11</f>
+        <v>0.845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="n">
-        <f aca="false">POWER((D24-D11),2)/D11</f>
-        <v>0.72</v>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <f aca="false">POWER((D23-D11),2)/D11</f>
+        <v>0.32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="n">
-        <f aca="false">POWER((D25-D11),2)/D11</f>
-        <v>2.88</v>
+      <c r="C32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <f aca="false">POWER((D24-D11),2)/D11</f>
+        <v>0.72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="n">
-        <f aca="false">POWER((D26-D11),2)/D11</f>
-        <v>1.125</v>
+      <c r="C33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <f aca="false">POWER((D25-D11),2)/D11</f>
+        <v>2.88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <f aca="false">SUM(D29:D33)</f>
-        <v>5.89</v>
+      <c r="C34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <f aca="false">POWER((D26-D11),2)/D11</f>
+        <v>1.125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="3" t="n">
         <v>0.9</v>
       </c>
+      <c r="C35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <f aca="false">SUM(D30:D34)</f>
+        <v>5.89</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="3" t="n">
@@ -5429,9 +5496,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5451,11 +5519,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C38:I38 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5476,11 +5544,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C38:I38 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/spreadsheets/DistChegadas.xlsx
+++ b/spreadsheets/DistChegadas.xlsx
@@ -31,7 +31,27 @@
     <t>Soma(t)</t>
   </si>
   <si>
-    <t>Taxa de chegada (Lambda)</t>
+    <r>
+      <t xml:space="preserve">Taxa de chegada (</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">λ</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="10"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t>Número de Categorias</t>
@@ -58,7 +78,7 @@
     <t>L4</t>
   </si>
   <si>
-    <t>Categoria </t>
+    <t>Categoria</t>
   </si>
   <si>
     <t>Número observado</t>
@@ -107,7 +127,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -126,6 +146,12 @@
     </font>
     <font>
       <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Ubuntu"/>
+      <charset val="1"/>
       <family val="0"/>
       <sz val="10"/>
     </font>
@@ -216,8 +242,8 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -302,17 +328,17 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C38" activeCellId="0" pane="topLeft" sqref="C38:I38"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G10" activeCellId="0" pane="topLeft" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -5519,11 +5545,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C38:I38 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5544,11 +5570,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C38:I38 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/spreadsheets/DistChegadas.xlsx
+++ b/spreadsheets/DistChegadas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>MEIO-TP1</t>
   </si>
@@ -28,11 +28,11 @@
     <t>Número de observações</t>
   </si>
   <si>
-    <t>Soma(t)</t>
+    <t>Soma dos intervalos de tempo entre chegadas (segundos)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Taxa de chegada (</t>
+      <t xml:space="preserve">Taxa de chegada </t>
     </r>
     <r>
       <rPr>
@@ -41,16 +41,21 @@
         <family val="0"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">λ</t>
+      <t xml:space="preserve">λ (chegada/segundo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Taxa de chegada </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
-        <family val="2"/>
+        <family val="0"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t xml:space="preserve">λ (chegada/hora)</t>
     </r>
   </si>
   <si>
@@ -127,7 +132,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -153,6 +158,11 @@
       <name val="Ubuntu"/>
       <charset val="1"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
@@ -224,7 +234,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
@@ -242,8 +252,11 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -328,17 +341,17 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G10" activeCellId="0" pane="topLeft" sqref="G10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.7490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.7490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.4039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -412,6 +425,13 @@
       <c r="A8" s="3" t="n">
         <v>0.2</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <f aca="false">D7*60*60</f>
+        <v>208.641224028514</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -426,12 +446,6 @@
       <c r="A10" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
@@ -439,12 +453,11 @@
       <c r="A11" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <f aca="false">PRODUCT((1/C11), D5)</f>
-        <v>200</v>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -453,6 +466,13 @@
       <c r="A12" s="3" t="n">
         <v>0.3</v>
       </c>
+      <c r="C12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <f aca="false">PRODUCT((1/C12), D5)</f>
+        <v>200</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
@@ -460,29 +480,22 @@
       <c r="A13" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>3.847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -492,8 +505,9 @@
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="n">
-        <v>8.807</v>
+      <c r="D16" s="7" t="n">
+        <f aca="false">LN(0.8 )/(-D7)</f>
+        <v>3.85023040615103</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -504,7 +518,8 @@
         <v>11</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>15.798</v>
+        <f aca="false">LN(0.6 )/(-D7)</f>
+        <v>8.81404072527029</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -515,13 +530,21 @@
         <v>12</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27.749</v>
+        <f aca="false">LN(0.4 )/(-D7)</f>
+        <v>15.8101384331226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="3" t="n">
         <v>0.5</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">LN(0.2 )/(-D7)</f>
+        <v>27.7700464600942</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="3" t="n">
@@ -532,22 +555,16 @@
       <c r="A21" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -558,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -569,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -580,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -591,14 +608,20 @@
         <v>19</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>185</v>
-      </c>
-      <c r="I26" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="I26" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="3" t="n">
         <v>0.7</v>
       </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="3" t="n">
@@ -609,10 +632,6 @@
       <c r="A29" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="3" t="n">
@@ -621,74 +640,78 @@
       <c r="C30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="9" t="n">
-        <f aca="false">POWER((D22-D11),2)/D11</f>
-        <v>0.845</v>
-      </c>
+      <c r="D30" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="9" t="n">
-        <f aca="false">POWER((D23-D11),2)/D11</f>
-        <v>0.32</v>
+      <c r="D31" s="10" t="n">
+        <f aca="false">POWER((D23-D12),2)/D12</f>
+        <v>0.845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="9" t="n">
-        <f aca="false">POWER((D24-D11),2)/D11</f>
-        <v>0.72</v>
+      <c r="D32" s="10" t="n">
+        <f aca="false">POWER((D24-D12),2)/D12</f>
+        <v>0.32</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="9" t="n">
-        <f aca="false">POWER((D25-D11),2)/D11</f>
-        <v>2.88</v>
+      <c r="D33" s="10" t="n">
+        <f aca="false">POWER((D25-D12),2)/D12</f>
+        <v>1.125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="9" t="n">
-        <f aca="false">POWER((D26-D11),2)/D11</f>
-        <v>1.125</v>
+      <c r="D34" s="10" t="n">
+        <f aca="false">POWER((D26-D12),2)/D12</f>
+        <v>2.205</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="9" t="n">
-        <f aca="false">SUM(D30:D34)</f>
-        <v>5.89</v>
+      <c r="D35" s="10" t="n">
+        <f aca="false">POWER((D27-D12),2)/D12</f>
+        <v>1.125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="3" t="n">
         <v>0.9</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <f aca="false">SUM(D31:D35)</f>
+        <v>5.62</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -5525,7 +5548,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5549,7 +5572,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5574,7 +5597,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/spreadsheets/DistChegadas.xlsx
+++ b/spreadsheets/DistChegadas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="208" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,11 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,30 +37,42 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Taxa de chegada </t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Taxa de chegada </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Ubuntu"/>
+        <family val="0"/>
         <charset val="1"/>
-        <family val="0"/>
-        <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">λ (chegada/segundo)</t>
+      <t>λ (chegada/segundo)</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Taxa de chegada </t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Taxa de chegada </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Ubuntu"/>
+        <family val="0"/>
         <charset val="1"/>
-        <family val="0"/>
-        <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">λ (chegada/hora)</t>
+      <t>λ (chegada/hora)</t>
     </r>
   </si>
   <si>
@@ -129,48 +146,44 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Ubuntu"/>
+      <family val="0"/>
       <charset val="1"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,26 +195,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6FF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFE6FF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C0C0"/>
-        <bgColor rgb="00CCCCFF"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -210,125 +223,146 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+  <cellXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00E6FF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFE6FF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -341,20 +375,21 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.4039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.5137254901961"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -364,7 +399,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -374,19 +409,19 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>0.1</v>
       </c>
@@ -397,7 +432,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>0.1</v>
       </c>
@@ -409,7 +444,7 @@
         <v>17254.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>0.1</v>
       </c>
@@ -421,7 +456,7 @@
         <v>0.0579558955634762</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>0.2</v>
       </c>
@@ -435,21 +470,21 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>0.2</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>0.2</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>0.3</v>
       </c>
@@ -462,32 +497,32 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>0.3</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <f aca="false">PRODUCT((1/C12), D5)</f>
         <v>200</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>0.4</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>0.4</v>
       </c>
@@ -498,23 +533,23 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <f aca="false">LN(0.8 )/(-D7)</f>
         <v>3.85023040615103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="6" t="n">
@@ -522,11 +557,11 @@
         <v>8.81404072527029</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="6" t="n">
@@ -534,11 +569,11 @@
         <v>15.8101384331226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="n">
@@ -546,17 +581,17 @@
         <v>27.7700464600942</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>0.6</v>
       </c>
@@ -567,4979 +602,4979 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="7" t="n">
         <v>187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="7" t="n">
         <v>192</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="D25" s="7" t="n">
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <v>221</v>
       </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>0.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D31" s="11" t="n">
         <f aca="false">POWER((D23-D12),2)/D12</f>
         <v>0.845</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="11" t="n">
         <f aca="false">POWER((D24-D12),2)/D12</f>
         <v>0.32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="11" t="n">
         <f aca="false">POWER((D25-D12),2)/D12</f>
         <v>1.125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="11" t="n">
         <f aca="false">POWER((D26-D12),2)/D12</f>
         <v>2.205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="11" t="n">
         <f aca="false">POWER((D27-D12),2)/D12</f>
         <v>1.125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="11" t="n">
         <f aca="false">SUM(D31:D35)</f>
         <v>5.62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
+    <row r="96" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
+    <row r="97" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
+    <row r="98" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
+    <row r="99" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
+    <row r="100" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
+    <row r="101" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row r="102" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
+    <row r="103" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
+    <row r="104" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="105">
+    <row r="105" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="106">
+    <row r="106" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="107">
+    <row r="107" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="108">
+    <row r="108" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="109">
+    <row r="109" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="110">
+    <row r="110" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="111">
+    <row r="111" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="112">
+    <row r="112" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="113">
+    <row r="113" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="114">
+    <row r="114" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="115">
+    <row r="115" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="116">
+    <row r="116" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="117">
+    <row r="117" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="118">
+    <row r="118" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="119">
+    <row r="119" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="120">
+    <row r="120" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="121">
+    <row r="121" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="122">
+    <row r="122" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="123">
+    <row r="123" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="124">
+    <row r="124" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="125">
+    <row r="125" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="126">
+    <row r="126" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="127">
+    <row r="127" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="128">
+    <row r="128" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="129">
+    <row r="129" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="130">
+    <row r="130" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="n">
         <v>2.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="132">
+    <row r="132" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="133">
+    <row r="133" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="134">
+    <row r="134" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row r="135" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="136">
+    <row r="136" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="137">
+    <row r="137" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row r="138" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="139">
+    <row r="139" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row r="140" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="141">
+    <row r="141" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="142">
+    <row r="142" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row r="143" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row r="144" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="145">
+    <row r="145" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row r="146" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="147">
+    <row r="147" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row r="148" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row r="149" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row r="150" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row r="151" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row r="152" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row r="153" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row r="154" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="155">
+    <row r="155" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row r="156" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row r="157" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row r="158" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row r="159" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row r="160" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row r="161" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row r="162" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="163">
+    <row r="163" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row r="164" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="165">
+    <row r="165" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="166">
+    <row r="166" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row r="167" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="168">
+    <row r="168" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="169">
+    <row r="169" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="170">
+    <row r="170" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="171">
+    <row r="171" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="172">
+    <row r="172" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="173">
+    <row r="173" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="174">
+    <row r="174" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="175">
+    <row r="175" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="176">
+    <row r="176" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="177">
+    <row r="177" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="178">
+    <row r="178" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="179">
+    <row r="179" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="180">
+    <row r="180" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="181">
+    <row r="181" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="182">
+    <row r="182" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="183">
+    <row r="183" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="184">
+    <row r="184" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="185">
+    <row r="185" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="186">
+    <row r="186" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="187">
+    <row r="187" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="188">
+    <row r="188" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="189">
+    <row r="189" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="190">
+    <row r="190" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="191">
+    <row r="191" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="192">
+    <row r="192" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="193">
+    <row r="193" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="3" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="194">
+    <row r="194" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="195">
+    <row r="195" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="196">
+    <row r="196" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="3" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="197">
+    <row r="197" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="3" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="198">
+    <row r="198" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="3" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="199">
+    <row r="199" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="3" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="200">
+    <row r="200" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="201">
+    <row r="201" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="202">
+    <row r="202" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="203">
+    <row r="203" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="204">
+    <row r="204" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="205">
+    <row r="205" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="206">
+    <row r="206" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="207">
+    <row r="207" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="208">
+    <row r="208" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="209">
+    <row r="209" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="210">
+    <row r="210" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="3" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="211">
+    <row r="211" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="212">
+    <row r="212" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="213">
+    <row r="213" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="3" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="214">
+    <row r="214" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="3" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="215">
+    <row r="215" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="3" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="216">
+    <row r="216" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="3" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="217">
+    <row r="217" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="3" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="218">
+    <row r="218" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="3" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="219">
+    <row r="219" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="3" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="220">
+    <row r="220" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="3" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="221">
+    <row r="221" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="3" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="222">
+    <row r="222" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="223">
+    <row r="223" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="3" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="224">
+    <row r="224" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="3" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="225">
+    <row r="225" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="3" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="226">
+    <row r="226" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="3" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="227">
+    <row r="227" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="228">
+    <row r="228" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="3" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="229">
+    <row r="229" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="3" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="230">
+    <row r="230" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="3" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="231">
+    <row r="231" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="3" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="232">
+    <row r="232" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="233">
+    <row r="233" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="234">
+    <row r="234" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="235">
+    <row r="235" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="236">
+    <row r="236" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="237">
+    <row r="237" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="238">
+    <row r="238" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="239">
+    <row r="239" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="240">
+    <row r="240" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="241">
+    <row r="241" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="242">
+    <row r="242" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="243">
+    <row r="243" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="244">
+    <row r="244" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="245">
+    <row r="245" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="246">
+    <row r="246" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="247">
+    <row r="247" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="248">
+    <row r="248" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="249">
+    <row r="249" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="250">
+    <row r="250" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="251">
+    <row r="251" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="252">
+    <row r="252" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="253">
+    <row r="253" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="3" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="254">
+    <row r="254" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="3" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="255">
+    <row r="255" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="256">
+    <row r="256" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="3" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="257">
+    <row r="257" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="3" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="258">
+    <row r="258" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="3" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="259">
+    <row r="259" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="3" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="260">
+    <row r="260" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="3" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="261">
+    <row r="261" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="3" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="262">
+    <row r="262" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="3" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="263">
+    <row r="263" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="3" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="264">
+    <row r="264" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="3" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="265">
+    <row r="265" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="3" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="266">
+    <row r="266" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="267">
+    <row r="267" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="3" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="268">
+    <row r="268" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="3" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="269">
+    <row r="269" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="3" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="270">
+    <row r="270" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="3" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="271">
+    <row r="271" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="3" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="272">
+    <row r="272" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="3" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="273">
+    <row r="273" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="3" t="n">
         <v>5.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="274">
+    <row r="274" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="n">
         <v>5.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="275">
+    <row r="275" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="3" t="n">
         <v>5.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="276">
+    <row r="276" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="3" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="277">
+    <row r="277" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="278">
+    <row r="278" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="3" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="279">
+    <row r="279" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="280">
+    <row r="280" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="281">
+    <row r="281" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="3" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="282">
+    <row r="282" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="3" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="283">
+    <row r="283" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="3" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="284">
+    <row r="284" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="3" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="285">
+    <row r="285" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="3" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="286">
+    <row r="286" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="3" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="287">
+    <row r="287" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="3" t="n">
         <v>6.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="288">
+    <row r="288" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="n">
         <v>6.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="289">
+    <row r="289" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="3" t="n">
         <v>6.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="290">
+    <row r="290" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="3" t="n">
         <v>6.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="291">
+    <row r="291" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="3" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="292">
+    <row r="292" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="3" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="293">
+    <row r="293" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="3" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="294">
+    <row r="294" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="3" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="295">
+    <row r="295" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="3" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="296">
+    <row r="296" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="3" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="297">
+    <row r="297" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="3" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="298">
+    <row r="298" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="3" t="n">
         <v>6.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="299">
+    <row r="299" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="n">
         <v>6.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="300">
+    <row r="300" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="3" t="n">
         <v>6.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="301">
+    <row r="301" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="3" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="302">
+    <row r="302" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="3" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="303">
+    <row r="303" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="3" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="304">
+    <row r="304" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="3" t="n">
         <v>6.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="305">
+    <row r="305" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="3" t="n">
         <v>6.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="306">
+    <row r="306" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="3" t="n">
         <v>6.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="307">
+    <row r="307" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="3" t="n">
         <v>6.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="308">
+    <row r="308" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="309">
+    <row r="309" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="3" t="n">
         <v>7.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="310">
+    <row r="310" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="n">
         <v>7.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="311">
+    <row r="311" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="3" t="n">
         <v>7.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="312">
+    <row r="312" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="3" t="n">
         <v>7.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="313">
+    <row r="313" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="3" t="n">
         <v>7.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="314">
+    <row r="314" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="3" t="n">
         <v>7.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="315">
+    <row r="315" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="3" t="n">
         <v>7.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="316">
+    <row r="316" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="3" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="317">
+    <row r="317" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="3" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="318">
+    <row r="318" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="3" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="319">
+    <row r="319" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="3" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="320">
+    <row r="320" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="3" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="321">
+    <row r="321" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="322">
+    <row r="322" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="323">
+    <row r="323" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="324">
+    <row r="324" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="325">
+    <row r="325" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="326">
+    <row r="326" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="327">
+    <row r="327" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="328">
+    <row r="328" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="329">
+    <row r="329" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="3" t="n">
         <v>7.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="330">
+    <row r="330" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="331">
+    <row r="331" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="332">
+    <row r="332" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="333">
+    <row r="333" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="334">
+    <row r="334" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="335">
+    <row r="335" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="336">
+    <row r="336" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="337">
+    <row r="337" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="3" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="338">
+    <row r="338" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="3" t="n">
         <v>7.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="339">
+    <row r="339" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="3" t="n">
         <v>7.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="340">
+    <row r="340" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="3" t="n">
         <v>7.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="341">
+    <row r="341" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="3" t="n">
         <v>7.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="342">
+    <row r="342" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="343">
+    <row r="343" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="344">
+    <row r="344" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="345">
+    <row r="345" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="346">
+    <row r="346" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="3" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="347">
+    <row r="347" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="3" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="348">
+    <row r="348" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="3" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="349">
+    <row r="349" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="3" t="n">
         <v>8.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="350">
+    <row r="350" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="3" t="n">
         <v>8.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="351">
+    <row r="351" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="3" t="n">
         <v>8.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="352">
+    <row r="352" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="3" t="n">
         <v>8.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="353">
+    <row r="353" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="3" t="n">
         <v>8.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="354">
+    <row r="354" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="3" t="n">
         <v>8.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="355">
+    <row r="355" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="3" t="n">
         <v>8.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="356">
+    <row r="356" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="3" t="n">
         <v>8.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="357">
+    <row r="357" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="3" t="n">
         <v>8.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="358">
+    <row r="358" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="3" t="n">
         <v>8.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="359">
+    <row r="359" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="3" t="n">
         <v>8.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="360">
+    <row r="360" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="3" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="361">
+    <row r="361" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="3" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="362">
+    <row r="362" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="3" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="363">
+    <row r="363" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="3" t="n">
         <v>8.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="364">
+    <row r="364" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="3" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="365">
+    <row r="365" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="3" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="366">
+    <row r="366" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="3" t="n">
         <v>8.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="367">
+    <row r="367" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="3" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="368">
+    <row r="368" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="3" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="369">
+    <row r="369" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="3" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="370">
+    <row r="370" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="3" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="371">
+    <row r="371" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="3" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="372">
+    <row r="372" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="3" t="n">
         <v>8.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="373">
+    <row r="373" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="3" t="n">
         <v>8.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="374">
+    <row r="374" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="3" t="n">
         <v>8.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="375">
+    <row r="375" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="3" t="n">
         <v>8.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="376">
+    <row r="376" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="3" t="n">
         <v>8.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="377">
+    <row r="377" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="3" t="n">
         <v>8.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="378">
+    <row r="378" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="3" t="n">
         <v>8.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="379">
+    <row r="379" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="3" t="n">
         <v>8.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="380">
+    <row r="380" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="3" t="n">
         <v>8.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="381">
+    <row r="381" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="3" t="n">
         <v>8.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="382">
+    <row r="382" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="3" t="n">
         <v>8.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="383">
+    <row r="383" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="3" t="n">
         <v>8.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="384">
+    <row r="384" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="385">
+    <row r="385" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="386">
+    <row r="386" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="387">
+    <row r="387" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="388">
+    <row r="388" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="389">
+    <row r="389" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="3" t="n">
         <v>9.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="390">
+    <row r="390" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="3" t="n">
         <v>9.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="391">
+    <row r="391" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="3" t="n">
         <v>9.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="392">
+    <row r="392" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="3" t="n">
         <v>9.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="393">
+    <row r="393" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="3" t="n">
         <v>9.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="394">
+    <row r="394" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="3" t="n">
         <v>9.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="395">
+    <row r="395" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="3" t="n">
         <v>9.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="396">
+    <row r="396" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="3" t="n">
         <v>9.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="397">
+    <row r="397" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="398">
+    <row r="398" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="399">
+    <row r="399" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="400">
+    <row r="400" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="401">
+    <row r="401" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="402">
+    <row r="402" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="403">
+    <row r="403" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="3" t="n">
         <v>9.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="404">
+    <row r="404" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="3" t="n">
         <v>9.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="405">
+    <row r="405" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="3" t="n">
         <v>9.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="406">
+    <row r="406" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="3" t="n">
         <v>9.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="407">
+    <row r="407" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="3" t="n">
         <v>9.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="408">
+    <row r="408" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="3" t="n">
         <v>9.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="409">
+    <row r="409" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="3" t="n">
         <v>9.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="410">
+    <row r="410" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="3" t="n">
         <v>9.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="411">
+    <row r="411" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="3" t="n">
         <v>9.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="412">
+    <row r="412" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="3" t="n">
         <v>9.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="413">
+    <row r="413" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="3" t="n">
         <v>9.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="414">
+    <row r="414" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="3" t="n">
         <v>9.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="415">
+    <row r="415" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="3" t="n">
         <v>9.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="416">
+    <row r="416" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="417">
+    <row r="417" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="418">
+    <row r="418" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="419">
+    <row r="419" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="420">
+    <row r="420" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="421">
+    <row r="421" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3" t="n">
         <v>10.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="422">
+    <row r="422" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3" t="n">
         <v>10.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="423">
+    <row r="423" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3" t="n">
         <v>10.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="424">
+    <row r="424" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="3" t="n">
         <v>10.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="425">
+    <row r="425" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="3" t="n">
         <v>10.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="426">
+    <row r="426" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="3" t="n">
         <v>10.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="427">
+    <row r="427" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="3" t="n">
         <v>10.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="428">
+    <row r="428" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="3" t="n">
         <v>10.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="429">
+    <row r="429" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="3" t="n">
         <v>10.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="430">
+    <row r="430" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="3" t="n">
         <v>10.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="431">
+    <row r="431" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="3" t="n">
         <v>10.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="432">
+    <row r="432" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="3" t="n">
         <v>10.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="433">
+    <row r="433" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="3" t="n">
         <v>10.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="434">
+    <row r="434" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3" t="n">
         <v>10.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="435">
+    <row r="435" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="3" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="436">
+    <row r="436" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="3" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="437">
+    <row r="437" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="3" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="438">
+    <row r="438" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="3" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="439">
+    <row r="439" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="3" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="440">
+    <row r="440" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="3" t="n">
         <v>10.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="441">
+    <row r="441" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="3" t="n">
         <v>10.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="442">
+    <row r="442" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="3" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="443">
+    <row r="443" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="3" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="444">
+    <row r="444" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="3" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="445">
+    <row r="445" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="3" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="446">
+    <row r="446" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="3" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="447">
+    <row r="447" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="3" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="448">
+    <row r="448" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="3" t="n">
         <v>10.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="449">
+    <row r="449" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="3" t="n">
         <v>10.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="450">
+    <row r="450" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="n">
         <v>10.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="451">
+    <row r="451" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="3" t="n">
         <v>10.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="452">
+    <row r="452" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="3" t="n">
         <v>10.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="453">
+    <row r="453" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="3" t="n">
         <v>10.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="454">
+    <row r="454" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="3" t="n">
         <v>10.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="455">
+    <row r="455" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="3" t="n">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="456">
+    <row r="456" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="3" t="n">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="457">
+    <row r="457" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="3" t="n">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="458">
+    <row r="458" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="3" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="459">
+    <row r="459" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="3" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="460">
+    <row r="460" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="3" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="461">
+    <row r="461" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="3" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="462">
+    <row r="462" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="3" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="463">
+    <row r="463" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="3" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="464">
+    <row r="464" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="3" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="465">
+    <row r="465" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="3" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="466">
+    <row r="466" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="3" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="467">
+    <row r="467" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="3" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="468">
+    <row r="468" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="3" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="469">
+    <row r="469" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="3" t="n">
         <v>11.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="470">
+    <row r="470" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="3" t="n">
         <v>11.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="471">
+    <row r="471" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="3" t="n">
         <v>11.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="472">
+    <row r="472" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="3" t="n">
         <v>11.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="473">
+    <row r="473" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="3" t="n">
         <v>11.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="474">
+    <row r="474" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="3" t="n">
         <v>11.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="475">
+    <row r="475" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="3" t="n">
         <v>11.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="476">
+    <row r="476" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="3" t="n">
         <v>11.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="477">
+    <row r="477" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="478">
+    <row r="478" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="479">
+    <row r="479" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="480">
+    <row r="480" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="481">
+    <row r="481" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="482">
+    <row r="482" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="483">
+    <row r="483" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="484">
+    <row r="484" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="3" t="n">
         <v>11.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="485">
+    <row r="485" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="3" t="n">
         <v>11.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="486">
+    <row r="486" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="3" t="n">
         <v>11.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="487">
+    <row r="487" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="3" t="n">
         <v>11.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="488">
+    <row r="488" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="3" t="n">
         <v>11.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="489">
+    <row r="489" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="3" t="n">
         <v>11.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="490">
+    <row r="490" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="3" t="n">
         <v>11.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="491">
+    <row r="491" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="3" t="n">
         <v>11.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="492">
+    <row r="492" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="493">
+    <row r="493" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="494">
+    <row r="494" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="495">
+    <row r="495" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="496">
+    <row r="496" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="3" t="n">
         <v>12.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="497">
+    <row r="497" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="3" t="n">
         <v>12.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="498">
+    <row r="498" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="3" t="n">
         <v>12.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="499">
+    <row r="499" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="3" t="n">
         <v>12.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="500">
+    <row r="500" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="3" t="n">
         <v>12.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="501">
+    <row r="501" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="3" t="n">
         <v>12.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="502">
+    <row r="502" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="3" t="n">
         <v>12.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="503">
+    <row r="503" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="3" t="n">
         <v>12.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="504">
+    <row r="504" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="3" t="n">
         <v>12.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="505">
+    <row r="505" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="3" t="n">
         <v>12.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="506">
+    <row r="506" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="3" t="n">
         <v>12.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="507">
+    <row r="507" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="3" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="508">
+    <row r="508" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="3" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="509">
+    <row r="509" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="3" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="510">
+    <row r="510" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="3" t="n">
         <v>12.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="511">
+    <row r="511" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="3" t="n">
         <v>12.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="512">
+    <row r="512" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="3" t="n">
         <v>12.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="513">
+    <row r="513" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="3" t="n">
         <v>12.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="514">
+    <row r="514" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="3" t="n">
         <v>12.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="515">
+    <row r="515" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="3" t="n">
         <v>12.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="516">
+    <row r="516" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="3" t="n">
         <v>12.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="517">
+    <row r="517" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="3" t="n">
         <v>12.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="518">
+    <row r="518" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="3" t="n">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="519">
+    <row r="519" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="3" t="n">
         <v>13.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="520">
+    <row r="520" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="3" t="n">
         <v>13.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="521">
+    <row r="521" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="3" t="n">
         <v>13.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="522">
+    <row r="522" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="3" t="n">
         <v>13.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="523">
+    <row r="523" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="3" t="n">
         <v>13.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="524">
+    <row r="524" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="3" t="n">
         <v>13.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="525">
+    <row r="525" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="3" t="n">
         <v>13.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="526">
+    <row r="526" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="3" t="n">
         <v>13.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="527">
+    <row r="527" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="3" t="n">
         <v>13.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="528">
+    <row r="528" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="3" t="n">
         <v>13.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="529">
+    <row r="529" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="3" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="530">
+    <row r="530" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="3" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="531">
+    <row r="531" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="3" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="532">
+    <row r="532" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="3" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="533">
+    <row r="533" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="3" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="534">
+    <row r="534" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="3" t="n">
         <v>13.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="535">
+    <row r="535" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="3" t="n">
         <v>13.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="536">
+    <row r="536" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="3" t="n">
         <v>13.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="537">
+    <row r="537" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="3" t="n">
         <v>13.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="538">
+    <row r="538" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="3" t="n">
         <v>13.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="539">
+    <row r="539" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="3" t="n">
         <v>13.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="540">
+    <row r="540" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="3" t="n">
         <v>13.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="541">
+    <row r="541" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="3" t="n">
         <v>13.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="542">
+    <row r="542" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="3" t="n">
         <v>13.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="543">
+    <row r="543" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="3" t="n">
         <v>13.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="544">
+    <row r="544" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="3" t="n">
         <v>13.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="545">
+    <row r="545" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="3" t="n">
         <v>13.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="546">
+    <row r="546" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="3" t="n">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="547">
+    <row r="547" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="3" t="n">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="548">
+    <row r="548" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="3" t="n">
         <v>14.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="549">
+    <row r="549" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="3" t="n">
         <v>14.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="550">
+    <row r="550" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="3" t="n">
         <v>14.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="551">
+    <row r="551" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="3" t="n">
         <v>14.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="552">
+    <row r="552" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="3" t="n">
         <v>14.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="553">
+    <row r="553" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="3" t="n">
         <v>14.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="554">
+    <row r="554" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="3" t="n">
         <v>14.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="555">
+    <row r="555" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="3" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="556">
+    <row r="556" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="3" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="557">
+    <row r="557" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="3" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="558">
+    <row r="558" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="3" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="559">
+    <row r="559" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="3" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="560">
+    <row r="560" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="3" t="n">
         <v>14.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="561">
+    <row r="561" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="3" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="562">
+    <row r="562" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="3" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="563">
+    <row r="563" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="3" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="564">
+    <row r="564" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="3" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="565">
+    <row r="565" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="3" t="n">
         <v>14.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="566">
+    <row r="566" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="3" t="n">
         <v>14.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="567">
+    <row r="567" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="3" t="n">
         <v>14.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="568">
+    <row r="568" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="3" t="n">
         <v>14.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="569">
+    <row r="569" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="3" t="n">
         <v>14.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="570">
+    <row r="570" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="3" t="n">
         <v>14.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="571">
+    <row r="571" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="3" t="n">
         <v>14.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="572">
+    <row r="572" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="3" t="n">
         <v>14.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="573">
+    <row r="573" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="3" t="n">
         <v>14.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="574">
+    <row r="574" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="3" t="n">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="575">
+    <row r="575" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="3" t="n">
         <v>15.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="576">
+    <row r="576" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="3" t="n">
         <v>15.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="577">
+    <row r="577" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="3" t="n">
         <v>15.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="578">
+    <row r="578" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="3" t="n">
         <v>15.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="579">
+    <row r="579" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="3" t="n">
         <v>15.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="580">
+    <row r="580" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="3" t="n">
         <v>15.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="581">
+    <row r="581" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="3" t="n">
         <v>15.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="582">
+    <row r="582" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="3" t="n">
         <v>15.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="583">
+    <row r="583" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="3" t="n">
         <v>15.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="584">
+    <row r="584" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="3" t="n">
         <v>15.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="585">
+    <row r="585" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="3" t="n">
         <v>15.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="586">
+    <row r="586" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="3" t="n">
         <v>15.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="587">
+    <row r="587" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="3" t="n">
         <v>15.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="588">
+    <row r="588" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="3" t="n">
         <v>15.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="589">
+    <row r="589" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="3" t="n">
         <v>15.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="590">
+    <row r="590" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="3" t="n">
         <v>15.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="591">
+    <row r="591" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="3" t="n">
         <v>15.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="592">
+    <row r="592" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="3" t="n">
         <v>15.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="593">
+    <row r="593" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="3" t="n">
         <v>15.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="594">
+    <row r="594" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="3" t="n">
         <v>15.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="595">
+    <row r="595" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="3" t="n">
         <v>15.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="596">
+    <row r="596" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="3" t="n">
         <v>15.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="597">
+    <row r="597" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="3" t="n">
         <v>15.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="598">
+    <row r="598" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="3" t="n">
         <v>15.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="599">
+    <row r="599" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="3" t="n">
         <v>15.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="600">
+    <row r="600" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="3" t="n">
         <v>15.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="601">
+    <row r="601" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="3" t="n">
         <v>15.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="602">
+    <row r="602" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="3" t="n">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="603">
+    <row r="603" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="3" t="n">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="604">
+    <row r="604" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="3" t="n">
         <v>16.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="605">
+    <row r="605" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="3" t="n">
         <v>16.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="606">
+    <row r="606" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="3" t="n">
         <v>16.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="607">
+    <row r="607" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="3" t="n">
         <v>16.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="608">
+    <row r="608" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="3" t="n">
         <v>16.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="609">
+    <row r="609" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="3" t="n">
         <v>16.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="610">
+    <row r="610" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="3" t="n">
         <v>16.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="611">
+    <row r="611" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="3" t="n">
         <v>16.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="612">
+    <row r="612" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="3" t="n">
         <v>16.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="613">
+    <row r="613" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="3" t="n">
         <v>16.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="614">
+    <row r="614" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="3" t="n">
         <v>16.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="615">
+    <row r="615" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="3" t="n">
         <v>16.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="616">
+    <row r="616" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="3" t="n">
         <v>16.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="617">
+    <row r="617" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="3" t="n">
         <v>16.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="618">
+    <row r="618" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="3" t="n">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="619">
+    <row r="619" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="3" t="n">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="620">
+    <row r="620" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="3" t="n">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="621">
+    <row r="621" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="3" t="n">
         <v>17.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="622">
+    <row r="622" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="3" t="n">
         <v>17.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="623">
+    <row r="623" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="3" t="n">
         <v>17.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="624">
+    <row r="624" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="3" t="n">
         <v>17.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="625">
+    <row r="625" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="3" t="n">
         <v>17.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="626">
+    <row r="626" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="3" t="n">
         <v>17.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="627">
+    <row r="627" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="3" t="n">
         <v>17.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="628">
+    <row r="628" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="3" t="n">
         <v>17.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="629">
+    <row r="629" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="3" t="n">
         <v>17.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="630">
+    <row r="630" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="3" t="n">
         <v>17.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="631">
+    <row r="631" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="3" t="n">
         <v>17.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="632">
+    <row r="632" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="3" t="n">
         <v>17.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="633">
+    <row r="633" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="3" t="n">
         <v>17.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="634">
+    <row r="634" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="3" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="635">
+    <row r="635" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="3" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="636">
+    <row r="636" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="3" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="637">
+    <row r="637" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="3" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="638">
+    <row r="638" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="3" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="639">
+    <row r="639" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="3" t="n">
         <v>17.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="640">
+    <row r="640" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="3" t="n">
         <v>17.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="641">
+    <row r="641" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="3" t="n">
         <v>17.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="642">
+    <row r="642" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="3" t="n">
         <v>17.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="643">
+    <row r="643" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="3" t="n">
         <v>17.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="644">
+    <row r="644" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="3" t="n">
         <v>17.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="645">
+    <row r="645" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="3" t="n">
         <v>17.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="646">
+    <row r="646" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="3" t="n">
         <v>17.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="647">
+    <row r="647" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="3" t="n">
         <v>17.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="648">
+    <row r="648" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="3" t="n">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="649">
+    <row r="649" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="3" t="n">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="650">
+    <row r="650" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="3" t="n">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="651">
+    <row r="651" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="3" t="n">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="652">
+    <row r="652" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="3" t="n">
         <v>18.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="653">
+    <row r="653" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="3" t="n">
         <v>18.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="654">
+    <row r="654" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="3" t="n">
         <v>18.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="655">
+    <row r="655" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="3" t="n">
         <v>18.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="656">
+    <row r="656" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="3" t="n">
         <v>18.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="657">
+    <row r="657" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="3" t="n">
         <v>18.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="658">
+    <row r="658" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="3" t="n">
         <v>18.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="659">
+    <row r="659" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="3" t="n">
         <v>18.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="660">
+    <row r="660" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="3" t="n">
         <v>18.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="661">
+    <row r="661" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="3" t="n">
         <v>18.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="662">
+    <row r="662" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="3" t="n">
         <v>18.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="663">
+    <row r="663" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="3" t="n">
         <v>18.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="664">
+    <row r="664" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="3" t="n">
         <v>18.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="665">
+    <row r="665" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="3" t="n">
         <v>18.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="666">
+    <row r="666" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="3" t="n">
         <v>18.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="667">
+    <row r="667" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="3" t="n">
         <v>18.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="668">
+    <row r="668" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="3" t="n">
         <v>18.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="669">
+    <row r="669" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="3" t="n">
         <v>18.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="670">
+    <row r="670" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="3" t="n">
         <v>18.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="671">
+    <row r="671" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="3" t="n">
         <v>18.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="672">
+    <row r="672" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="3" t="n">
         <v>18.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="673">
+    <row r="673" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="3" t="n">
         <v>18.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="674">
+    <row r="674" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="3" t="n">
         <v>18.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="675">
+    <row r="675" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="3" t="n">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="676">
+    <row r="676" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="3" t="n">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="677">
+    <row r="677" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="3" t="n">
         <v>19.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="678">
+    <row r="678" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="3" t="n">
         <v>19.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="679">
+    <row r="679" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="3" t="n">
         <v>19.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="680">
+    <row r="680" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="3" t="n">
         <v>19.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="681">
+    <row r="681" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="3" t="n">
         <v>19.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="682">
+    <row r="682" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="3" t="n">
         <v>19.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="683">
+    <row r="683" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="3" t="n">
         <v>19.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="684">
+    <row r="684" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="3" t="n">
         <v>19.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="685">
+    <row r="685" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="3" t="n">
         <v>19.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="686">
+    <row r="686" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="3" t="n">
         <v>19.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="687">
+    <row r="687" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="3" t="n">
         <v>19.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="688">
+    <row r="688" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="3" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="689">
+    <row r="689" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="3" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="690">
+    <row r="690" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="3" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="691">
+    <row r="691" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="3" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="692">
+    <row r="692" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="3" t="n">
         <v>19.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="693">
+    <row r="693" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="3" t="n">
         <v>19.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="694">
+    <row r="694" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="3" t="n">
         <v>19.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="695">
+    <row r="695" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="3" t="n">
         <v>19.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="696">
+    <row r="696" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="3" t="n">
         <v>19.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="697">
+    <row r="697" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="3" t="n">
         <v>19.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="698">
+    <row r="698" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="3" t="n">
         <v>19.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="699">
+    <row r="699" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="3" t="n">
         <v>20.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="700">
+    <row r="700" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="3" t="n">
         <v>20.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="701">
+    <row r="701" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="3" t="n">
         <v>20.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="702">
+    <row r="702" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="3" t="n">
         <v>20.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="703">
+    <row r="703" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="3" t="n">
         <v>20.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="704">
+    <row r="704" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="3" t="n">
         <v>20.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="705">
+    <row r="705" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="3" t="n">
         <v>20.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="706">
+    <row r="706" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="3" t="n">
         <v>20.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="707">
+    <row r="707" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="3" t="n">
         <v>20.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="708">
+    <row r="708" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="3" t="n">
         <v>20.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="709">
+    <row r="709" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="3" t="n">
         <v>20.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="710">
+    <row r="710" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="3" t="n">
         <v>20.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="711">
+    <row r="711" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="3" t="n">
         <v>20.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="712">
+    <row r="712" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="3" t="n">
         <v>20.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="713">
+    <row r="713" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="3" t="n">
         <v>20.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="714">
+    <row r="714" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="3" t="n">
         <v>20.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="715">
+    <row r="715" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="3" t="n">
         <v>20.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="716">
+    <row r="716" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="3" t="n">
         <v>20.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="717">
+    <row r="717" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="3" t="n">
         <v>21.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="718">
+    <row r="718" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="3" t="n">
         <v>21.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="719">
+    <row r="719" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="3" t="n">
         <v>21.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="720">
+    <row r="720" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="3" t="n">
         <v>21.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="721">
+    <row r="721" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="3" t="n">
         <v>21.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="722">
+    <row r="722" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="3" t="n">
         <v>21.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="723">
+    <row r="723" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="3" t="n">
         <v>21.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="724">
+    <row r="724" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="3" t="n">
         <v>21.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="725">
+    <row r="725" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="3" t="n">
         <v>21.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="726">
+    <row r="726" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="3" t="n">
         <v>21.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="727">
+    <row r="727" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="3" t="n">
         <v>21.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="728">
+    <row r="728" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="3" t="n">
         <v>21.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="729">
+    <row r="729" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="3" t="n">
         <v>21.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="730">
+    <row r="730" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="3" t="n">
         <v>21.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="731">
+    <row r="731" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="3" t="n">
         <v>21.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="732">
+    <row r="732" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="3" t="n">
         <v>21.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="733">
+    <row r="733" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="3" t="n">
         <v>21.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="734">
+    <row r="734" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="3" t="n">
         <v>21.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="735">
+    <row r="735" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="3" t="n">
         <v>22.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="736">
+    <row r="736" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="3" t="n">
         <v>22.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="737">
+    <row r="737" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="3" t="n">
         <v>22.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="738">
+    <row r="738" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="3" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="739">
+    <row r="739" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="3" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="740">
+    <row r="740" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="3" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="741">
+    <row r="741" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="3" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="742">
+    <row r="742" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="3" t="n">
         <v>22.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="743">
+    <row r="743" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="3" t="n">
         <v>22.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="744">
+    <row r="744" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="3" t="n">
         <v>22.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="745">
+    <row r="745" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="3" t="n">
         <v>22.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="746">
+    <row r="746" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="3" t="n">
         <v>22.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="747">
+    <row r="747" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="3" t="n">
         <v>22.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="748">
+    <row r="748" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="3" t="n">
         <v>22.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="749">
+    <row r="749" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="3" t="n">
         <v>22.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="750">
+    <row r="750" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="3" t="n">
         <v>22.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="751">
+    <row r="751" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="3" t="n">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="752">
+    <row r="752" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="3" t="n">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="753">
+    <row r="753" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="3" t="n">
         <v>23.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="754">
+    <row r="754" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="3" t="n">
         <v>23.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="755">
+    <row r="755" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="3" t="n">
         <v>23.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="756">
+    <row r="756" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="3" t="n">
         <v>23.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="757">
+    <row r="757" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="3" t="n">
         <v>23.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="758">
+    <row r="758" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="3" t="n">
         <v>23.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="759">
+    <row r="759" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="3" t="n">
         <v>23.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="760">
+    <row r="760" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="3" t="n">
         <v>23.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="761">
+    <row r="761" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="3" t="n">
         <v>23.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="762">
+    <row r="762" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="3" t="n">
         <v>23.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="763">
+    <row r="763" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="3" t="n">
         <v>23.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="764">
+    <row r="764" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="3" t="n">
         <v>23.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="765">
+    <row r="765" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="3" t="n">
         <v>23.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="766">
+    <row r="766" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="3" t="n">
         <v>23.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="767">
+    <row r="767" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="3" t="n">
         <v>23.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="768">
+    <row r="768" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="3" t="n">
         <v>23.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="769">
+    <row r="769" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="3" t="n">
         <v>23.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="770">
+    <row r="770" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="3" t="n">
         <v>24.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="771">
+    <row r="771" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="3" t="n">
         <v>24.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="772">
+    <row r="772" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="3" t="n">
         <v>24.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="773">
+    <row r="773" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="3" t="n">
         <v>24.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="774">
+    <row r="774" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="3" t="n">
         <v>24.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="775">
+    <row r="775" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="3" t="n">
         <v>24.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="776">
+    <row r="776" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="3" t="n">
         <v>24.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="777">
+    <row r="777" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="3" t="n">
         <v>24.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="778">
+    <row r="778" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="3" t="n">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="779">
+    <row r="779" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="3" t="n">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="780">
+    <row r="780" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="3" t="n">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="781">
+    <row r="781" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="3" t="n">
         <v>25.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="782">
+    <row r="782" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="3" t="n">
         <v>25.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="783">
+    <row r="783" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="3" t="n">
         <v>25.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="784">
+    <row r="784" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="3" t="n">
         <v>25.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="785">
+    <row r="785" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="3" t="n">
         <v>25.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="786">
+    <row r="786" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="3" t="n">
         <v>25.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="787">
+    <row r="787" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="3" t="n">
         <v>25.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="788">
+    <row r="788" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="3" t="n">
         <v>25.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="789">
+    <row r="789" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="3" t="n">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="790">
+    <row r="790" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="3" t="n">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="791">
+    <row r="791" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="3" t="n">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="792">
+    <row r="792" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="3" t="n">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="793">
+    <row r="793" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="3" t="n">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="794">
+    <row r="794" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="3" t="n">
         <v>26.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="795">
+    <row r="795" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="3" t="n">
         <v>26.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="796">
+    <row r="796" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="3" t="n">
         <v>26.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="797">
+    <row r="797" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="3" t="n">
         <v>26.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="798">
+    <row r="798" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="3" t="n">
         <v>26.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="799">
+    <row r="799" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="3" t="n">
         <v>26.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="800">
+    <row r="800" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="3" t="n">
         <v>26.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="801">
+    <row r="801" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="3" t="n">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="802">
+    <row r="802" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="3" t="n">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="803">
+    <row r="803" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="3" t="n">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="804">
+    <row r="804" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="3" t="n">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="805">
+    <row r="805" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="3" t="n">
         <v>27.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="806">
+    <row r="806" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="3" t="n">
         <v>27.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="807">
+    <row r="807" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="3" t="n">
         <v>27.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="808">
+    <row r="808" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="3" t="n">
         <v>27.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="809">
+    <row r="809" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="3" t="n">
         <v>27.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="810">
+    <row r="810" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="3" t="n">
         <v>27.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="811">
+    <row r="811" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="3" t="n">
         <v>27.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="812">
+    <row r="812" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="3" t="n">
         <v>27.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="813">
+    <row r="813" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="3" t="n">
         <v>27.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="814">
+    <row r="814" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="3" t="n">
         <v>27.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="815">
+    <row r="815" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="3" t="n">
         <v>27.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="816">
+    <row r="816" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="3" t="n">
         <v>27.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="817">
+    <row r="817" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="3" t="n">
         <v>27.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="818">
+    <row r="818" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="3" t="n">
         <v>27.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="819">
+    <row r="819" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="3" t="n">
         <v>27.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="820">
+    <row r="820" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="3" t="n">
         <v>27.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="821">
+    <row r="821" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="3" t="n">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="822">
+    <row r="822" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="3" t="n">
         <v>28.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="823">
+    <row r="823" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="3" t="n">
         <v>28.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="824">
+    <row r="824" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="3" t="n">
         <v>28.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="825">
+    <row r="825" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="3" t="n">
         <v>28.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="826">
+    <row r="826" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="3" t="n">
         <v>28.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="827">
+    <row r="827" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="3" t="n">
         <v>28.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="828">
+    <row r="828" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="3" t="n">
         <v>28.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="829">
+    <row r="829" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="3" t="n">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="830">
+    <row r="830" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="3" t="n">
         <v>29.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="831">
+    <row r="831" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="3" t="n">
         <v>29.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="832">
+    <row r="832" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="3" t="n">
         <v>29.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="833">
+    <row r="833" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="3" t="n">
         <v>29.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="834">
+    <row r="834" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="3" t="n">
         <v>29.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="835">
+    <row r="835" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="3" t="n">
         <v>29.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="836">
+    <row r="836" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="3" t="n">
         <v>29.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="837">
+    <row r="837" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="3" t="n">
         <v>29.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="838">
+    <row r="838" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="3" t="n">
         <v>29.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="839">
+    <row r="839" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="3" t="n">
         <v>29.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="840">
+    <row r="840" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="3" t="n">
         <v>30.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="841">
+    <row r="841" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="3" t="n">
         <v>30.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="842">
+    <row r="842" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="3" t="n">
         <v>30.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="843">
+    <row r="843" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="3" t="n">
         <v>30.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="844">
+    <row r="844" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="3" t="n">
         <v>30.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="845">
+    <row r="845" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="3" t="n">
         <v>30.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="846">
+    <row r="846" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="3" t="n">
         <v>30.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="847">
+    <row r="847" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="3" t="n">
         <v>30.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="848">
+    <row r="848" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="3" t="n">
         <v>30.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="849">
+    <row r="849" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="3" t="n">
         <v>30.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="850">
+    <row r="850" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="3" t="n">
         <v>30.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="851">
+    <row r="851" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="3" t="n">
         <v>30.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="852">
+    <row r="852" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="3" t="n">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="853">
+    <row r="853" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="3" t="n">
         <v>31.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="854">
+    <row r="854" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="3" t="n">
         <v>31.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="855">
+    <row r="855" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="3" t="n">
         <v>31.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="856">
+    <row r="856" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="3" t="n">
         <v>31.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="857">
+    <row r="857" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="3" t="n">
         <v>31.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="858">
+    <row r="858" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="3" t="n">
         <v>31.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="859">
+    <row r="859" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="3" t="n">
         <v>32.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="860">
+    <row r="860" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="3" t="n">
         <v>32.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="861">
+    <row r="861" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="3" t="n">
         <v>32.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="862">
+    <row r="862" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="3" t="n">
         <v>32.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="863">
+    <row r="863" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="3" t="n">
         <v>32.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="864">
+    <row r="864" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="3" t="n">
         <v>32.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="865">
+    <row r="865" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="3" t="n">
         <v>33.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="866">
+    <row r="866" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="3" t="n">
         <v>33.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="867">
+    <row r="867" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="3" t="n">
         <v>33.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="868">
+    <row r="868" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="3" t="n">
         <v>33.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="869">
+    <row r="869" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="3" t="n">
         <v>34.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="870">
+    <row r="870" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="3" t="n">
         <v>34.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="871">
+    <row r="871" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="3" t="n">
         <v>34.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="872">
+    <row r="872" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="3" t="n">
         <v>34.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="873">
+    <row r="873" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="3" t="n">
         <v>35.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="874">
+    <row r="874" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="3" t="n">
         <v>35.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="875">
+    <row r="875" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="3" t="n">
         <v>35.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="876">
+    <row r="876" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="3" t="n">
         <v>35.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="877">
+    <row r="877" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="3" t="n">
         <v>35.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="878">
+    <row r="878" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="3" t="n">
         <v>35.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="879">
+    <row r="879" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="3" t="n">
         <v>35.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="880">
+    <row r="880" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="3" t="n">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="881">
+    <row r="881" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="3" t="n">
         <v>36.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="882">
+    <row r="882" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="3" t="n">
         <v>36.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="883">
+    <row r="883" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="3" t="n">
         <v>37.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="884">
+    <row r="884" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="3" t="n">
         <v>37.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="885">
+    <row r="885" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="3" t="n">
         <v>37.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="886">
+    <row r="886" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="3" t="n">
         <v>37.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="887">
+    <row r="887" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="3" t="n">
         <v>37.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="888">
+    <row r="888" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="3" t="n">
         <v>37.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="889">
+    <row r="889" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="3" t="n">
         <v>37.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="890">
+    <row r="890" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="3" t="n">
         <v>37.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="891">
+    <row r="891" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="3" t="n">
         <v>38.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="892">
+    <row r="892" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="3" t="n">
         <v>38.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="893">
+    <row r="893" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="3" t="n">
         <v>38.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="894">
+    <row r="894" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="3" t="n">
         <v>38.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="895">
+    <row r="895" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="3" t="n">
         <v>38.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="896">
+    <row r="896" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="3" t="n">
         <v>38.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="897">
+    <row r="897" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="3" t="n">
         <v>38.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="898">
+    <row r="898" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="3" t="n">
         <v>38.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="899">
+    <row r="899" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="3" t="n">
         <v>38.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="900">
+    <row r="900" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="3" t="n">
         <v>38.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="901">
+    <row r="901" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="3" t="n">
         <v>39.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="902">
+    <row r="902" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="3" t="n">
         <v>39.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="903">
+    <row r="903" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="3" t="n">
         <v>39.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="904">
+    <row r="904" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="3" t="n">
         <v>39.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="905">
+    <row r="905" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="3" t="n">
         <v>39.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="906">
+    <row r="906" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="3" t="n">
         <v>39.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="907">
+    <row r="907" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="3" t="n">
         <v>40.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="908">
+    <row r="908" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="3" t="n">
         <v>40.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="909">
+    <row r="909" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="3" t="n">
         <v>40.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="910">
+    <row r="910" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="3" t="n">
         <v>40.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="911">
+    <row r="911" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="3" t="n">
         <v>40.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="912">
+    <row r="912" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="3" t="n">
         <v>40.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="913">
+    <row r="913" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="3" t="n">
         <v>40.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="914">
+    <row r="914" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="3" t="n">
         <v>41.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="915">
+    <row r="915" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="3" t="n">
         <v>41.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="916">
+    <row r="916" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="3" t="n">
         <v>41.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="917">
+    <row r="917" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="3" t="n">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="918">
+    <row r="918" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="3" t="n">
         <v>42.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="919">
+    <row r="919" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="3" t="n">
         <v>43.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="920">
+    <row r="920" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="3" t="n">
         <v>43.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="921">
+    <row r="921" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="3" t="n">
         <v>43.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="922">
+    <row r="922" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="3" t="n">
         <v>43.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="923">
+    <row r="923" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="3" t="n">
         <v>43.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="924">
+    <row r="924" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="3" t="n">
         <v>44.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="925">
+    <row r="925" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="3" t="n">
         <v>44.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="926">
+    <row r="926" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="3" t="n">
         <v>44.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="927">
+    <row r="927" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="3" t="n">
         <v>44.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="928">
+    <row r="928" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="3" t="n">
         <v>44.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="929">
+    <row r="929" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="3" t="n">
         <v>45.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="930">
+    <row r="930" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="3" t="n">
         <v>45.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="931">
+    <row r="931" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="3" t="n">
         <v>45.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="932">
+    <row r="932" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="3" t="n">
         <v>45.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="933">
+    <row r="933" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="3" t="n">
         <v>45.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="934">
+    <row r="934" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="3" t="n">
         <v>45.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="935">
+    <row r="935" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="3" t="n">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="936">
+    <row r="936" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="3" t="n">
         <v>46.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="937">
+    <row r="937" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="3" t="n">
         <v>46.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="938">
+    <row r="938" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="3" t="n">
         <v>46.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="939">
+    <row r="939" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="3" t="n">
         <v>46.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="940">
+    <row r="940" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="3" t="n">
         <v>47.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="941">
+    <row r="941" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="3" t="n">
         <v>47.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="942">
+    <row r="942" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="3" t="n">
         <v>47.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="943">
+    <row r="943" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="3" t="n">
         <v>47.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="944">
+    <row r="944" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="3" t="n">
         <v>48.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="945">
+    <row r="945" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="3" t="n">
         <v>48.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="946">
+    <row r="946" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="3" t="n">
         <v>48.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="947">
+    <row r="947" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="3" t="n">
         <v>48.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="948">
+    <row r="948" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="3" t="n">
         <v>48.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="949">
+    <row r="949" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="3" t="n">
         <v>49.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="950">
+    <row r="950" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="3" t="n">
         <v>49.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="951">
+    <row r="951" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="3" t="n">
         <v>50.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="952">
+    <row r="952" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="3" t="n">
         <v>50.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="953">
+    <row r="953" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="3" t="n">
         <v>50.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="954">
+    <row r="954" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="3" t="n">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="955">
+    <row r="955" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="3" t="n">
         <v>51.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="956">
+    <row r="956" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="3" t="n">
         <v>52.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="957">
+    <row r="957" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="3" t="n">
         <v>52.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="958">
+    <row r="958" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="3" t="n">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="959">
+    <row r="959" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="3" t="n">
         <v>53.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="960">
+    <row r="960" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="3" t="n">
         <v>53.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="961">
+    <row r="961" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="3" t="n">
         <v>53.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="962">
+    <row r="962" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="3" t="n">
         <v>54.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="963">
+    <row r="963" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="3" t="n">
         <v>54.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="964">
+    <row r="964" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="3" t="n">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="965">
+    <row r="965" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="3" t="n">
         <v>55.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="966">
+    <row r="966" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="3" t="n">
         <v>55.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="967">
+    <row r="967" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="3" t="n">
         <v>56.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="968">
+    <row r="968" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="3" t="n">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="969">
+    <row r="969" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="3" t="n">
         <v>57.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="970">
+    <row r="970" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="3" t="n">
         <v>58.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="971">
+    <row r="971" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="3" t="n">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="972">
+    <row r="972" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="3" t="n">
         <v>60.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="973">
+    <row r="973" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="3" t="n">
         <v>61.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="974">
+    <row r="974" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="3" t="n">
         <v>61.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="975">
+    <row r="975" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="3" t="n">
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="976">
+    <row r="976" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="3" t="n">
         <v>63.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="977">
+    <row r="977" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="3" t="n">
         <v>64.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="978">
+    <row r="978" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="3" t="n">
         <v>65.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="979">
+    <row r="979" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="3" t="n">
         <v>65.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="980">
+    <row r="980" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="3" t="n">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="981">
+    <row r="981" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="3" t="n">
         <v>66.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="982">
+    <row r="982" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="3" t="n">
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="983">
+    <row r="983" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="3" t="n">
         <v>67.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="984">
+    <row r="984" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="3" t="n">
         <v>68.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="985">
+    <row r="985" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="3" t="n">
         <v>68.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="986">
+    <row r="986" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="3" t="n">
         <v>70.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="987">
+    <row r="987" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="3" t="n">
         <v>70.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="988">
+    <row r="988" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="3" t="n">
         <v>72.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="989">
+    <row r="989" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="3" t="n">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="990">
+    <row r="990" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="3" t="n">
         <v>74.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="991">
+    <row r="991" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="3" t="n">
         <v>74.8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="992">
+    <row r="992" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="3" t="n">
         <v>76.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="993">
+    <row r="993" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="3" t="n">
         <v>78.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="994">
+    <row r="994" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A994" s="3" t="n">
         <v>80.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="995">
+    <row r="995" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A995" s="3" t="n">
         <v>83.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="996">
+    <row r="996" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A996" s="3" t="n">
         <v>84.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="997">
+    <row r="997" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A997" s="3" t="n">
         <v>85.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="998">
+    <row r="998" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A998" s="3" t="n">
         <v>92.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="999">
+    <row r="999" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A999" s="3" t="n">
         <v>94.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1000">
+    <row r="1000" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1000" s="3" t="n">
         <v>95.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1001">
+    <row r="1001" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1001" s="3" t="n">
         <v>100.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1002">
+    <row r="1002" customFormat="false" ht="12.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1002" s="3" t="n">
         <v>103.9</v>
       </c>
@@ -5552,7 +5587,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5567,17 +5602,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5592,17 +5628,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
